--- a/public/templates/Form-B-Themeplate.xlsx
+++ b/public/templates/Form-B-Themeplate.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OJT\Desktop\Projects\Hemis\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OJT\Documents\GitHub\Hemis\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84425E92-FC83-4EBD-8FE4-5DAC98AC4A8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE7475B-B797-43F6-8462-C22FD7C78328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="7" xr2:uid="{5A974822-4E2C-4D23-A9AA-CDA364ED8D9D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{5A974822-4E2C-4D23-A9AA-CDA364ED8D9D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Doctorate" sheetId="1" r:id="rId1"/>
-    <sheet name="Masters" sheetId="3" r:id="rId2"/>
-    <sheet name="Post-Baccalaureate" sheetId="4" r:id="rId3"/>
-    <sheet name="Baccalaureate" sheetId="5" r:id="rId4"/>
-    <sheet name="Pre-Baccalaureate" sheetId="6" r:id="rId5"/>
-    <sheet name="VocTech" sheetId="7" r:id="rId6"/>
-    <sheet name="Basic" sheetId="8" r:id="rId7"/>
+    <sheet name="DOCTORATE" sheetId="1" r:id="rId1"/>
+    <sheet name="MASTERS" sheetId="3" r:id="rId2"/>
+    <sheet name="POST-BACCALAUREATE" sheetId="4" r:id="rId3"/>
+    <sheet name="BACCALAUREATE" sheetId="5" r:id="rId4"/>
+    <sheet name="PRE-BACCALAUREATE" sheetId="6" r:id="rId5"/>
+    <sheet name="VOC-TECH" sheetId="7" r:id="rId6"/>
+    <sheet name="BASIC EDUCATION" sheetId="8" r:id="rId7"/>
     <sheet name="Reference" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -742,10 +742,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -767,18 +782,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,15 +806,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,9 +839,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -879,7 +879,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -985,7 +985,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1127,7 +1127,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1177,19 +1177,19 @@
       <c r="A1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="32" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="11" t="s">
         <v>94</v>
       </c>
@@ -1304,80 +1304,80 @@
       <c r="AV1" s="2"/>
     </row>
     <row r="2" spans="1:48" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="25" t="s">
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="35" t="s">
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35" t="s">
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35" t="s">
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="35"/>
+      <c r="AR2" s="26"/>
       <c r="AS2" s="2" t="s">
         <v>43</v>
       </c>
@@ -1390,72 +1390,72 @@
       <c r="AV2" s="2"/>
     </row>
     <row r="3" spans="1:48" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="36" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36" t="s">
+      <c r="S3" s="25"/>
+      <c r="T3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36" t="s">
+      <c r="U3" s="25"/>
+      <c r="V3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36" t="s">
+      <c r="W3" s="25"/>
+      <c r="X3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36" t="s">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36" t="s">
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36" t="s">
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36" t="s">
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36" t="s">
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AI3" s="36"/>
+      <c r="AI3" s="25"/>
       <c r="AJ3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="35" t="s">
+      <c r="AK3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35" t="s">
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
       <c r="AQ3" s="13" t="s">
         <v>31</v>
       </c>
@@ -1476,29 +1476,29 @@
       </c>
     </row>
     <row r="4" spans="1:48" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25" t="s">
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
@@ -1532,7 +1532,7 @@
       <c r="AV4" s="2"/>
     </row>
     <row r="5" spans="1:48" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
@@ -1554,15 +1554,15 @@
       <c r="H5" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
       <c r="R5" s="12" t="s">
         <v>15</v>
       </c>
@@ -2365,27 +2365,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:E3"/>
@@ -2397,6 +2376,27 @@
     <mergeCell ref="K2:K5"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="M2:O3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AK3:AM3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Sequence Number. The input should be greater than or equal to 1. e.g. 10" sqref="A9:A18" xr:uid="{85C6D75F-DEAF-4F8E-BF3A-CB8EE2630FA6}">
@@ -2451,19 +2451,19 @@
       <c r="A1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="11" t="s">
         <v>94</v>
       </c>
@@ -2578,80 +2578,80 @@
       <c r="AV1" s="2"/>
     </row>
     <row r="2" spans="1:48" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="35" t="s">
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35" t="s">
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35" t="s">
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="35"/>
+      <c r="AR2" s="26"/>
       <c r="AS2" s="2" t="s">
         <v>43</v>
       </c>
@@ -2664,72 +2664,72 @@
       <c r="AV2" s="2"/>
     </row>
     <row r="3" spans="1:48" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="36" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36" t="s">
+      <c r="S3" s="25"/>
+      <c r="T3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36" t="s">
+      <c r="U3" s="25"/>
+      <c r="V3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36" t="s">
+      <c r="W3" s="25"/>
+      <c r="X3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36" t="s">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36" t="s">
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36" t="s">
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36" t="s">
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36" t="s">
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AI3" s="36"/>
+      <c r="AI3" s="25"/>
       <c r="AJ3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="35" t="s">
+      <c r="AK3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35" t="s">
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
       <c r="AQ3" s="13" t="s">
         <v>31</v>
       </c>
@@ -2750,29 +2750,29 @@
       </c>
     </row>
     <row r="4" spans="1:48" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
@@ -2806,7 +2806,7 @@
       <c r="AV4" s="2"/>
     </row>
     <row r="5" spans="1:48" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
@@ -2828,15 +2828,15 @@
       <c r="H5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
       <c r="R5" s="12" t="s">
         <v>15</v>
       </c>
@@ -3639,27 +3639,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:E3"/>
@@ -3671,6 +3650,27 @@
     <mergeCell ref="K2:K5"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="M2:O3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AK3:AM3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Sequence Number. The input should be greater than or equal to 1. e.g. 10" sqref="A9:A18" xr:uid="{E2A129DE-8E94-4952-A31C-F299AC2F9EC7}">
@@ -3725,19 +3725,19 @@
       <c r="A1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="11" t="s">
         <v>94</v>
       </c>
@@ -3852,80 +3852,80 @@
       <c r="AV1" s="2"/>
     </row>
     <row r="2" spans="1:48" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="35" t="s">
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35" t="s">
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35" t="s">
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="35"/>
+      <c r="AR2" s="26"/>
       <c r="AS2" s="2" t="s">
         <v>43</v>
       </c>
@@ -3938,72 +3938,72 @@
       <c r="AV2" s="2"/>
     </row>
     <row r="3" spans="1:48" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="36" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36" t="s">
+      <c r="S3" s="25"/>
+      <c r="T3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36" t="s">
+      <c r="U3" s="25"/>
+      <c r="V3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36" t="s">
+      <c r="W3" s="25"/>
+      <c r="X3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36" t="s">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36" t="s">
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36" t="s">
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36" t="s">
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36" t="s">
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AI3" s="36"/>
+      <c r="AI3" s="25"/>
       <c r="AJ3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="35" t="s">
+      <c r="AK3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35" t="s">
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
       <c r="AQ3" s="13" t="s">
         <v>31</v>
       </c>
@@ -4024,29 +4024,29 @@
       </c>
     </row>
     <row r="4" spans="1:48" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
@@ -4080,7 +4080,7 @@
       <c r="AV4" s="2"/>
     </row>
     <row r="5" spans="1:48" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
@@ -4102,15 +4102,15 @@
       <c r="H5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
       <c r="R5" s="12" t="s">
         <v>15</v>
       </c>
@@ -4925,27 +4925,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:E3"/>
@@ -4957,6 +4936,27 @@
     <mergeCell ref="K2:K5"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="M2:O3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AK3:AM3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Sequence Number. The input should be greater than or equal to 1. e.g. 10" sqref="A9:A18" xr:uid="{23911CA6-17C6-441F-A7FF-05C828B10FE7}">
@@ -5011,19 +5011,19 @@
       <c r="A1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="11" t="s">
         <v>94</v>
       </c>
@@ -5138,80 +5138,80 @@
       <c r="AV1" s="2"/>
     </row>
     <row r="2" spans="1:48" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="35" t="s">
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35" t="s">
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35" t="s">
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="35"/>
+      <c r="AR2" s="26"/>
       <c r="AS2" s="2" t="s">
         <v>43</v>
       </c>
@@ -5224,72 +5224,72 @@
       <c r="AV2" s="2"/>
     </row>
     <row r="3" spans="1:48" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="36" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36" t="s">
+      <c r="S3" s="25"/>
+      <c r="T3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36" t="s">
+      <c r="U3" s="25"/>
+      <c r="V3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36" t="s">
+      <c r="W3" s="25"/>
+      <c r="X3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36" t="s">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36" t="s">
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36" t="s">
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36" t="s">
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36" t="s">
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AI3" s="36"/>
+      <c r="AI3" s="25"/>
       <c r="AJ3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="35" t="s">
+      <c r="AK3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35" t="s">
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
       <c r="AQ3" s="13" t="s">
         <v>31</v>
       </c>
@@ -5310,29 +5310,29 @@
       </c>
     </row>
     <row r="4" spans="1:48" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
@@ -5366,7 +5366,7 @@
       <c r="AV4" s="2"/>
     </row>
     <row r="5" spans="1:48" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
@@ -5388,15 +5388,15 @@
       <c r="H5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
       <c r="R5" s="12" t="s">
         <v>15</v>
       </c>
@@ -8191,27 +8191,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:E3"/>
@@ -8223,6 +8202,27 @@
     <mergeCell ref="K2:K5"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="M2:O3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AK3:AM3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Sequence Number. The input should be greater than or equal to 1. e.g. 10" sqref="A9:A18" xr:uid="{88EA6B29-8DF2-4D02-AB2E-555359CDE811}">
@@ -8277,19 +8277,19 @@
       <c r="A1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="11" t="s">
         <v>94</v>
       </c>
@@ -8404,80 +8404,80 @@
       <c r="AV1" s="2"/>
     </row>
     <row r="2" spans="1:48" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="35" t="s">
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35" t="s">
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35" t="s">
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="35"/>
+      <c r="AR2" s="26"/>
       <c r="AS2" s="2" t="s">
         <v>43</v>
       </c>
@@ -8490,72 +8490,72 @@
       <c r="AV2" s="2"/>
     </row>
     <row r="3" spans="1:48" s="3" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="36" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36" t="s">
+      <c r="S3" s="25"/>
+      <c r="T3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36" t="s">
+      <c r="U3" s="25"/>
+      <c r="V3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36" t="s">
+      <c r="W3" s="25"/>
+      <c r="X3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36" t="s">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36" t="s">
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36" t="s">
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36" t="s">
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36" t="s">
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AI3" s="36"/>
+      <c r="AI3" s="25"/>
       <c r="AJ3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="35" t="s">
+      <c r="AK3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35" t="s">
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
       <c r="AQ3" s="13" t="s">
         <v>31</v>
       </c>
@@ -8576,29 +8576,29 @@
       </c>
     </row>
     <row r="4" spans="1:48" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
@@ -8632,7 +8632,7 @@
       <c r="AV4" s="2"/>
     </row>
     <row r="5" spans="1:48" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
@@ -8654,15 +8654,15 @@
       <c r="H5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
       <c r="R5" s="12" t="s">
         <v>15</v>
       </c>
@@ -9797,27 +9797,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:E3"/>
@@ -9829,6 +9808,27 @@
     <mergeCell ref="K2:K5"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="M2:O3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AK3:AM3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Sequence Number. The input should be greater than or equal to 1. e.g. 10" sqref="A9:A18" xr:uid="{E1B86700-E717-49C4-9D31-44407F20D7F8}">
@@ -9844,7 +9844,7 @@
   <dimension ref="A1:AV18"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="B1" sqref="A1:XFD1"/>
     </sheetView>
@@ -9883,19 +9883,19 @@
       <c r="A1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="11" t="s">
         <v>94</v>
       </c>
@@ -10010,80 +10010,80 @@
       <c r="AV1" s="2"/>
     </row>
     <row r="2" spans="1:48" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="35" t="s">
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35" t="s">
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35" t="s">
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="35"/>
+      <c r="AR2" s="26"/>
       <c r="AS2" s="2" t="s">
         <v>43</v>
       </c>
@@ -10096,72 +10096,72 @@
       <c r="AV2" s="2"/>
     </row>
     <row r="3" spans="1:48" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="36" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36" t="s">
+      <c r="S3" s="25"/>
+      <c r="T3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36" t="s">
+      <c r="U3" s="25"/>
+      <c r="V3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36" t="s">
+      <c r="W3" s="25"/>
+      <c r="X3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36" t="s">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36" t="s">
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36" t="s">
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36" t="s">
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36" t="s">
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AI3" s="36"/>
+      <c r="AI3" s="25"/>
       <c r="AJ3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="35" t="s">
+      <c r="AK3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35" t="s">
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
       <c r="AQ3" s="13" t="s">
         <v>31</v>
       </c>
@@ -10182,29 +10182,29 @@
       </c>
     </row>
     <row r="4" spans="1:48" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
@@ -10238,7 +10238,7 @@
       <c r="AV4" s="2"/>
     </row>
     <row r="5" spans="1:48" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
@@ -10260,15 +10260,15 @@
       <c r="H5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
       <c r="R5" s="12" t="s">
         <v>15</v>
       </c>
@@ -11083,27 +11083,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:E3"/>
@@ -11115,6 +11094,27 @@
     <mergeCell ref="K2:K5"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="M2:O3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AK3:AM3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Sequence Number. The input should be greater than or equal to 1. e.g. 10" sqref="A9:A18" xr:uid="{E4EDD67C-4F7E-4221-8F6D-C3A2C85F0EEF}">
@@ -11129,7 +11129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D5AAF95-013A-4E68-99F4-9324EF3AE98D}">
   <dimension ref="A1:AV11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D11" sqref="D11"/>
@@ -11169,19 +11169,19 @@
       <c r="A1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="24"/>
+      <c r="F1" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="39"/>
       <c r="I1" s="11" t="s">
         <v>94</v>
       </c>
@@ -11296,80 +11296,80 @@
       <c r="AV1" s="2"/>
     </row>
     <row r="2" spans="1:48" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="37" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="25" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
-      <c r="P2" s="25" t="s">
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="R2" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="36"/>
-      <c r="AI2" s="36"/>
-      <c r="AJ2" s="36"/>
-      <c r="AK2" s="35" t="s">
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="25"/>
+      <c r="AC2" s="25"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="25"/>
+      <c r="AF2" s="25"/>
+      <c r="AG2" s="25"/>
+      <c r="AH2" s="25"/>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35" t="s">
+      <c r="AL2" s="26"/>
+      <c r="AM2" s="26"/>
+      <c r="AN2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="35" t="s">
+      <c r="AO2" s="26"/>
+      <c r="AP2" s="26"/>
+      <c r="AQ2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="AR2" s="35"/>
+      <c r="AR2" s="26"/>
       <c r="AS2" s="2" t="s">
         <v>43</v>
       </c>
@@ -11382,72 +11382,72 @@
       <c r="AV2" s="2"/>
     </row>
     <row r="3" spans="1:48" s="3" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="36" t="s">
+      <c r="A3" s="30"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36" t="s">
+      <c r="S3" s="25"/>
+      <c r="T3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36" t="s">
+      <c r="U3" s="25"/>
+      <c r="V3" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36" t="s">
+      <c r="W3" s="25"/>
+      <c r="X3" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36" t="s">
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36" t="s">
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36" t="s">
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36" t="s">
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36" t="s">
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="AI3" s="36"/>
+      <c r="AI3" s="25"/>
       <c r="AJ3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="AK3" s="35" t="s">
+      <c r="AK3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="AL3" s="35"/>
-      <c r="AM3" s="35"/>
-      <c r="AN3" s="35" t="s">
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
       <c r="AQ3" s="13" t="s">
         <v>31</v>
       </c>
@@ -11468,29 +11468,29 @@
       </c>
     </row>
     <row r="4" spans="1:48" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="30"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25" t="s">
+      <c r="F4" s="43"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="O4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
@@ -11524,7 +11524,7 @@
       <c r="AV4" s="2"/>
     </row>
     <row r="5" spans="1:48" s="3" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+      <c r="A5" s="30"/>
       <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
@@ -11546,15 +11546,15 @@
       <c r="H5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
       <c r="R5" s="12" t="s">
         <v>15</v>
       </c>
@@ -12026,27 +12026,6 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="Q2:Q5"/>
-    <mergeCell ref="R2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AP2"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AQ2:AR2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AN3:AP3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I2:I5"/>
-    <mergeCell ref="J2:J5"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="D2:E3"/>
@@ -12058,6 +12037,27 @@
     <mergeCell ref="K2:K5"/>
     <mergeCell ref="L2:L5"/>
     <mergeCell ref="M2:O3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I2:I5"/>
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AN3:AP3"/>
+    <mergeCell ref="Q2:Q5"/>
+    <mergeCell ref="R2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AP2"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AK3:AM3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showErrorMessage="1" errorTitle="Data Validation" error="Please enter a valid entry for Sequence Number. The input should be greater than or equal to 1. e.g. 10" sqref="A9:A11" xr:uid="{ABED79BF-AD24-4B75-BD31-65853B2827D1}">
@@ -12072,7 +12072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B08A5C96-F8F8-4065-A272-1EAFF5AFB2D4}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
